--- a/output/below_50/tRNA-Ser-AGA-2-5.xlsx
+++ b/output/below_50/tRNA-Ser-AGA-2-5.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
   <si>
     <t>chr8</t>
   </si>
@@ -285,141 +285,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>96281946</t>
-  </si>
-  <si>
-    <t>96281969</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>96281966</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>AACCACTCGGCCACGACTAC</t>
-  </si>
-  <si>
-    <t>17% (28)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 21%, Moreno-Mateos: 17%</t>
-  </si>
-  <si>
-    <t>2.37244E+11</t>
-  </si>
-  <si>
-    <t>96282144</t>
-  </si>
-  <si>
-    <t>96282167</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>96282164</t>
-  </si>
-  <si>
-    <t>CAACTCTTTGTTGGAAAAAA</t>
-  </si>
-  <si>
-    <t>25% (41)</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 44, Doench 2016: 25%, Moreno-Mateos: 63%</t>
-  </si>
-  <si>
-    <t>98576075976</t>
-  </si>
-  <si>
-    <t>96282182</t>
-  </si>
-  <si>
-    <t>96282205</t>
-  </si>
-  <si>
-    <t>96282185</t>
-  </si>
-  <si>
-    <t>GTCTCTCTCTCTCTCTCTCT</t>
-  </si>
-  <si>
-    <t>35% (45)</t>
-  </si>
-  <si>
-    <t>35% (38)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>96282270</t>
-  </si>
-  <si>
-    <t>96282293</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>96282290</t>
-  </si>
-  <si>
-    <t>CCAGGAGAGAACCAGGAACC</t>
-  </si>
-  <si>
-    <t>83% (63)</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 49, Doench 2016: 72%, Moreno-Mateos: 83%</t>
-  </si>
-  <si>
-    <t>2.11979E+11</t>
-  </si>
-  <si>
-    <t>96282337</t>
-  </si>
-  <si>
-    <t>96282360</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>96282340</t>
-  </si>
-  <si>
-    <t>CAAAGAGAAAGGCGAAGGAG</t>
-  </si>
-  <si>
-    <t>86% (62)</t>
-  </si>
-  <si>
-    <t>65% (52)</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 40, Doench 2016: 86%, Moreno-Mateos: 65%</t>
-  </si>
-  <si>
-    <t>1.58395E+11</t>
   </si>
 </sst>
 </file>
@@ -464,7 +329,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1119,301 +984,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="G12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" t="s">
-        <v>95</v>
-      </c>
-      <c r="J12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" t="s">
-        <v>93</v>
-      </c>
-      <c r="N12" t="s">
-        <v>88</v>
-      </c>
-      <c r="O12" t="s">
-        <v>97</v>
-      </c>
-      <c r="P12" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" t="s">
-        <v>99</v>
-      </c>
-      <c r="S12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" t="s">
-        <v>104</v>
-      </c>
-      <c r="H13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" t="s">
-        <v>95</v>
-      </c>
-      <c r="J13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" t="s">
-        <v>105</v>
-      </c>
-      <c r="L13" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" t="s">
-        <v>103</v>
-      </c>
-      <c r="N13" t="s">
-        <v>106</v>
-      </c>
-      <c r="O13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P13" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R13" t="s">
-        <v>108</v>
-      </c>
-      <c r="S13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" t="s">
-        <v>111</v>
-      </c>
-      <c r="H14" t="s">
-        <v>6</v>
-      </c>
-      <c r="I14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" t="s">
-        <v>113</v>
-      </c>
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" t="s">
-        <v>114</v>
-      </c>
-      <c r="O14" t="s">
-        <v>115</v>
-      </c>
-      <c r="P14" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>47</v>
-      </c>
-      <c r="R14" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G15" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" t="s">
-        <v>95</v>
-      </c>
-      <c r="J15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" t="s">
-        <v>121</v>
-      </c>
-      <c r="L15" t="s">
-        <v>20</v>
-      </c>
-      <c r="M15" t="s">
-        <v>119</v>
-      </c>
-      <c r="N15" t="s">
-        <v>74</v>
-      </c>
-      <c r="O15" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>107</v>
-      </c>
-      <c r="R15" t="s">
-        <v>124</v>
-      </c>
-      <c r="S15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" t="s">
-        <v>127</v>
-      </c>
-      <c r="D16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" t="s">
-        <v>127</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" t="s">
-        <v>95</v>
-      </c>
-      <c r="J16" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" t="s">
-        <v>130</v>
-      </c>
-      <c r="L16" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" t="s">
-        <v>128</v>
-      </c>
-      <c r="N16" t="s">
-        <v>131</v>
-      </c>
-      <c r="O16" t="s">
-        <v>132</v>
-      </c>
-      <c r="P16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>107</v>
-      </c>
-      <c r="R16" t="s">
-        <v>134</v>
-      </c>
-      <c r="S16" t="s">
-        <v>135</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
